--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3785765.514888919</v>
+        <v>3781460.391891851</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>158.9209832102722</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.72734108435034</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>47.60797832237422</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>54.92068123217187</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>194.3712445107109</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>43.18356261702102</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276005</v>
+        <v>92.8578877276002</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425875</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.40283674656077</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937519</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074803</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>62.60701437185337</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589163</v>
+        <v>36.91115760589135</v>
       </c>
       <c r="R7" t="n">
-        <v>94.82998161739962</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>30.62143619562842</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>388.1071494931463</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>200.4727983501231</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>61.74100384146887</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>220.0133056736544</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>185.62795066089</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>113.3214422457868</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142866</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.244080764313</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,13 +1900,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>20.89983420622057</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.255571502167365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V25" t="n">
-        <v>97.24762927924141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>65.99480013030511</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>143.5476780877535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>122.2059282187645</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187851</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>129.2171928962051</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.57516893522981</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>128.3548363691463</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881284</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>66.09841665934231</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>91.32784210538787</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3361714764007</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764007</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>315.4971313776541</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>302.2669968018379</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058927</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407918</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644748</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112382</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652797</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487949</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487949</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487949</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="W2" t="n">
-        <v>540.7559564928855</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="X2" t="n">
-        <v>540.7559564928855</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3361714764007</v>
+        <v>322.4426321268576</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353.9240526153388</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="C3" t="n">
-        <v>179.4710233342118</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296054</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>598.819273219876</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033912</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3994882033912</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3994882033912</v>
+        <v>560.682563648794</v>
       </c>
       <c r="W3" t="n">
-        <v>409.3994882033912</v>
+        <v>560.682563648794</v>
       </c>
       <c r="X3" t="n">
-        <v>353.9240526153388</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="Y3" t="n">
-        <v>353.9240526153388</v>
+        <v>371.2627786323095</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.2977256009899</v>
+        <v>1450.080602212023</v>
       </c>
       <c r="C5" t="n">
-        <v>595.3352086605782</v>
+        <v>1081.118085271612</v>
       </c>
       <c r="D5" t="n">
-        <v>595.3352086605782</v>
+        <v>722.8523866648611</v>
       </c>
       <c r="E5" t="n">
-        <v>595.3352086605782</v>
+        <v>337.0641340666169</v>
       </c>
       <c r="F5" t="n">
-        <v>184.3493038709707</v>
+        <v>140.7295436517574</v>
       </c>
       <c r="G5" t="n">
-        <v>171.9736627254663</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017213</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746971</v>
+        <v>277.980716674699</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030752</v>
+        <v>521.2049416030784</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709165</v>
+        <v>823.508193570921</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.31683658275</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079244</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332756</v>
+        <v>1621.822248332764</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837881</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837881</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837881</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837881</v>
+        <v>1450.080602212023</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837881</v>
+        <v>1450.080602212023</v>
       </c>
       <c r="W5" t="n">
-        <v>1727.902815837881</v>
+        <v>1450.080602212023</v>
       </c>
       <c r="X5" t="n">
-        <v>1354.437057576802</v>
+        <v>1450.080602212023</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.2977256009899</v>
+        <v>1450.080602212023</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782.765301938328</v>
+        <v>517.1829502645916</v>
       </c>
       <c r="C6" t="n">
-        <v>608.312272657201</v>
+        <v>342.7299209834646</v>
       </c>
       <c r="D6" t="n">
-        <v>459.3778629959497</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>459.3778629959497</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787518</v>
+        <v>61.66788464787575</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980606</v>
+        <v>186.1577239806072</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189974</v>
+        <v>399.8722171189995</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223493</v>
+        <v>668.6238185223526</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352469</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699367</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419122</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419122</v>
+        <v>1382.639252450137</v>
       </c>
       <c r="V6" t="n">
-        <v>827.6166521873793</v>
+        <v>1147.487144218394</v>
       </c>
       <c r="W6" t="n">
-        <v>827.6166521873793</v>
+        <v>893.2497874901924</v>
       </c>
       <c r="X6" t="n">
-        <v>827.6166521873793</v>
+        <v>685.3982872846595</v>
       </c>
       <c r="Y6" t="n">
-        <v>827.6166521873793</v>
+        <v>685.3982872846595</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574674</v>
+        <v>64.24066662574734</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584112</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347967</v>
+        <v>206.9680378347984</v>
       </c>
       <c r="N7" t="n">
-        <v>287.884133819536</v>
+        <v>287.8841338195382</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193471</v>
+        <v>342.3101561934736</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857996</v>
+        <v>369.8190495858027</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040909</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="R7" t="n">
-        <v>236.7471917844953</v>
+        <v>215.6054393610414</v>
       </c>
       <c r="S7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
       <c r="T7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
       <c r="U7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
       <c r="V7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675763</v>
+        <v>184.6746957290935</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>833.1755141229769</v>
+        <v>1579.362210729296</v>
       </c>
       <c r="C8" t="n">
-        <v>833.1755141229769</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>833.1755141229769</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>447.3872615247327</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794703</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457213</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1572.544009457213</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1219.775354187099</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X8" t="n">
-        <v>1219.775354187099</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="Y8" t="n">
-        <v>1219.775354187099</v>
+        <v>1965.962050793417</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>561.2427816242823</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>386.7897523431553</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>237.8553426819041</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>237.8553426819041</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474386</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948362</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081626</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498832</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>937.3096188498832</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>729.4581186443504</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>729.4581186443504</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>298.0536847439801</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809315</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2082.596442208995</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1793.521215553193</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V13" t="n">
-        <v>1538.836727347306</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1249.419557310345</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>1021.430006412328</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>800.6374272687975</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>923.4916164683283</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>773.3749770559925</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>625.4618834735994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.574735228845</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2526.197884723913</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532264</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.350136867861</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.665648661974</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.248478625014</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.258927726996</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4663485834661</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532803</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1976.192826467915</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.508338262028</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.091168225067</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.30903818352</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,22 +6074,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,16 +6697,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6718,7 +6718,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6782,22 +6782,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>746.1673476194629</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>596.0507082071272</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>448.1376146247341</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>448.1376146247341</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7177,22 +7177,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7441,10 +7441,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>854.7852236114967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>704.6685841991609</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>556.7554906167678</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>409.8655431188574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6694438337374</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>104.0840080815015</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>104.8770068749575</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>6.176967258618276</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>265.2846401830236</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V25" t="n">
-        <v>154.8900140445866</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.0314858713395</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>164.3170701178265</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>36.30694539606372</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>38.89198472948149</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>74.19629618688158</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>194.8566322838563</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
         <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253117</v>
+        <v>270592.3620253145</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231949</v>
+        <v>115410.0540231913</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881961</v>
+        <v>62913.63765882017</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197528</v>
+        <v>27875.25362197451</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26450,7 +26450,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936813</v>
+        <v>76435.73471936829</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126363.5421489127</v>
+        <v>-126363.5421489124</v>
       </c>
       <c r="C6" t="n">
-        <v>246883.2059466498</v>
+        <v>246883.2059466475</v>
       </c>
       <c r="D6" t="n">
-        <v>425703.5996497113</v>
+        <v>425703.5996497151</v>
       </c>
       <c r="E6" t="n">
-        <v>69575.50125771722</v>
+        <v>69228.12200335946</v>
       </c>
       <c r="F6" t="n">
-        <v>671018.7088319814</v>
+        <v>670671.3295776241</v>
       </c>
       <c r="G6" t="n">
-        <v>671018.7088319813</v>
+        <v>670671.3295776246</v>
       </c>
       <c r="H6" t="n">
-        <v>671018.7088319811</v>
+        <v>670671.3295776243</v>
       </c>
       <c r="I6" t="n">
-        <v>671018.7088319812</v>
+        <v>670671.3295776243</v>
       </c>
       <c r="J6" t="n">
-        <v>621953.7641034368</v>
+        <v>621606.38484908</v>
       </c>
       <c r="K6" t="n">
-        <v>608105.0711731617</v>
+        <v>607757.6919188042</v>
       </c>
       <c r="L6" t="n">
-        <v>643143.4552100059</v>
+        <v>642796.0759556498</v>
       </c>
       <c r="M6" t="n">
-        <v>513872.3282803837</v>
+        <v>513524.9490260263</v>
       </c>
       <c r="N6" t="n">
-        <v>671018.7088319814</v>
+        <v>670671.3295776246</v>
       </c>
       <c r="O6" t="n">
-        <v>671018.7088319814</v>
+        <v>670671.3295776244</v>
       </c>
       <c r="P6" t="n">
-        <v>671018.7088319816</v>
+        <v>670671.3295776246</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>758.899629295061</v>
+        <v>758.8996292950629</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594704</v>
+        <v>431.9757039594725</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26940,10 +26940,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821564</v>
+        <v>210.4296883821587</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262414</v>
+        <v>94.81103524262119</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931507</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666937</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>157.9728428959502</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988685</v>
+        <v>25.91829388988715</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>329.5136276330627</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>125.1005206659415</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681327</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>150.8523039713056</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849722</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>212.5048012310005</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>265.0466934544525</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425924</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.1303469033066</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937505</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074777</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>163.2269762521457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304057</v>
+        <v>30.24193919304031</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.9303348992228</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>169.5458079174318</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>18.76889624856511</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>185.7651403059305</v>
       </c>
     </row>
     <row r="9">
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>83.328208551915</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>117.2980339485929</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>66.22175214206231</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>66.50969266293805</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108567</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429363</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286708</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520266</v>
+        <v>388.0799144520276</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511773</v>
+        <v>481.4474502511785</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968095</v>
+        <v>535.7030533968109</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610693</v>
+        <v>544.3712888610706</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191486</v>
+        <v>514.0343715191499</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860961</v>
+        <v>438.7164434860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634654</v>
+        <v>329.4577782634662</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898977</v>
+        <v>69.52130774898995</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062481</v>
+        <v>56.20152915062495</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.5887514316635</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721887</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658082</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468663</v>
+        <v>424.5470671468673</v>
       </c>
       <c r="O6" t="n">
-        <v>388.377624437445</v>
+        <v>388.377624437446</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872488</v>
+        <v>311.7072835872495</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547501</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947718</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378876</v>
+        <v>6.579516597378892</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734528</v>
+        <v>41.15475366734539</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635555</v>
+        <v>96.7534822463558</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162534</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528487</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054705</v>
+        <v>61.53307486054721</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830796</v>
+        <v>5.847259438830811</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656345</v>
+        <v>0.07464586517656364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>382.6869096644257</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198383</v>
+        <v>77.89141170198451</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070461</v>
+        <v>167.990063407047</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811901</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695368</v>
+        <v>305.3568201695382</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644784</v>
+        <v>314.9582252644797</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974619</v>
+        <v>283.9361600974631</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308265</v>
+        <v>207.4834477308276</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890159</v>
+        <v>107.1520883890167</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092682</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.7473124573045</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923145</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437899</v>
+        <v>271.4662640437909</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635329</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930006</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729193</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.3862901687281</v>
+        <v>68.38629016872861</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554455</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501464</v>
+        <v>68.57507023501515</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230861</v>
+        <v>75.59399159230915</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761548</v>
+        <v>81.73343028761602</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569182</v>
+        <v>54.97578017569231</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235216</v>
+        <v>27.78676100235259</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>244.1325298845516</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3781460.391891851</v>
+        <v>3783220.922194636</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>158.9209832102722</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>158.9209832102732</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>47.60797832237422</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663196</v>
+        <v>92.73964154763136</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443403</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>194.3712445107109</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>183.8955528540394</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276002</v>
+        <v>92.85788772760034</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425875</v>
+        <v>23.94240680425898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>62.60701437185337</v>
+        <v>14.5693990499469</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>19.86486348320009</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589135</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>30.62143619562842</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>17.12867925136339</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.4727983501231</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="S9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.52615597052887</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>185.62795066089</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>181.3074675142866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1660,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413588</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>100.58583229927</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>128.3548363691463</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>28.75188085812005</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>315.4971313776541</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>302.2669968018379</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058927</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407918</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644748</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112382</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433421</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268576</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268576</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323095</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400123</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140238</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652786</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="V3" t="n">
-        <v>560.682563648794</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="W3" t="n">
-        <v>560.682563648794</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323095</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323095</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1450.080602212023</v>
+        <v>690.0150038868171</v>
       </c>
       <c r="C5" t="n">
-        <v>1081.118085271612</v>
+        <v>321.0524869464054</v>
       </c>
       <c r="D5" t="n">
-        <v>722.8523866648611</v>
+        <v>321.0524869464054</v>
       </c>
       <c r="E5" t="n">
-        <v>337.0641340666169</v>
+        <v>321.0524869464054</v>
       </c>
       <c r="F5" t="n">
-        <v>140.7295436517574</v>
+        <v>314.1069861972019</v>
       </c>
       <c r="G5" t="n">
         <v>128.353902506253</v>
@@ -4564,55 +4564,55 @@
         <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017223</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.980716674699</v>
+        <v>277.980716674698</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030784</v>
+        <v>521.2049416030768</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570921</v>
+        <v>823.5081935709189</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582756</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079244</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332764</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583789</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="U5" t="n">
-        <v>1450.080602212023</v>
+        <v>1450.080602212019</v>
       </c>
       <c r="V5" t="n">
-        <v>1450.080602212023</v>
+        <v>1450.080602212019</v>
       </c>
       <c r="W5" t="n">
-        <v>1450.080602212023</v>
+        <v>1450.080602212019</v>
       </c>
       <c r="X5" t="n">
-        <v>1450.080602212023</v>
+        <v>1076.614843950939</v>
       </c>
       <c r="Y5" t="n">
-        <v>1450.080602212023</v>
+        <v>1076.614843950939</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.1829502645916</v>
+        <v>357.945495259136</v>
       </c>
       <c r="C6" t="n">
-        <v>342.7299209834646</v>
+        <v>183.492465978009</v>
       </c>
       <c r="D6" t="n">
-        <v>193.7955113222133</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787575</v>
+        <v>61.66788464787547</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806072</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189995</v>
+        <v>399.8722171189985</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223526</v>
+        <v>668.623818522351</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352514</v>
+        <v>958.8971200352491</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228323</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639513</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="U6" t="n">
-        <v>1382.639252450137</v>
+        <v>1431.162096209635</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.487144218394</v>
+        <v>1196.009987977892</v>
       </c>
       <c r="W6" t="n">
-        <v>893.2497874901924</v>
+        <v>941.7726312496907</v>
       </c>
       <c r="X6" t="n">
-        <v>685.3982872846595</v>
+        <v>733.9211310441578</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.3982872846595</v>
+        <v>526.160832279204</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="C7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675781</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675781</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675781</v>
+        <v>222.9291020878909</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675781</v>
+        <v>54.62357498665679</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574734</v>
+        <v>64.24066662574705</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584124</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347984</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195382</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934736</v>
+        <v>342.3101561934724</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858027</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040943</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="R7" t="n">
-        <v>215.6054393610414</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="S7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="T7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="U7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="V7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="W7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="X7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.6746957290935</v>
+        <v>369.8190495858013</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>1259.585999602851</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>890.6234826624391</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>532.3577840556886</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>146.5695314574444</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>139.6240307082409</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793417</v>
+        <v>1646.185839666972</v>
       </c>
     </row>
     <row r="9">
@@ -4907,7 +4907,7 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
         <v>1745.745249409541</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>356.5099238196483</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>208.5968302372552</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4998,16 +4998,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>332.7863665750536</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5038,40 +5038,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.371145873544</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.686657667657</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.269487630696</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,19 +6551,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>835.5837926935558</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X40" t="n">
-        <v>1238.024836667326</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.232257523796</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>104.8770068749575</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>38.89198472948149</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>116.6691671648112</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="9">
@@ -26316,16 +26316,16 @@
         <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
@@ -26334,28 +26334,28 @@
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253145</v>
+        <v>270592.362025313</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231913</v>
+        <v>115410.0540231925</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882017</v>
+        <v>62913.63765881983</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197451</v>
+        <v>27875.25362197481</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263458</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26429,7 +26429,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26438,7 +26438,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26450,7 +26450,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936829</v>
+        <v>76435.73471936821</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126363.5421489124</v>
+        <v>-126363.5421489128</v>
       </c>
       <c r="C6" t="n">
-        <v>246883.2059466475</v>
+        <v>246883.2059466489</v>
       </c>
       <c r="D6" t="n">
-        <v>425703.5996497151</v>
+        <v>425703.5996497138</v>
       </c>
       <c r="E6" t="n">
-        <v>69228.12200335946</v>
+        <v>69540.76333228048</v>
       </c>
       <c r="F6" t="n">
-        <v>670671.3295776241</v>
+        <v>670983.9709065455</v>
       </c>
       <c r="G6" t="n">
-        <v>670671.3295776246</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="H6" t="n">
-        <v>670671.3295776243</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="I6" t="n">
-        <v>670671.3295776243</v>
+        <v>670983.9709065459</v>
       </c>
       <c r="J6" t="n">
-        <v>621606.38484908</v>
+        <v>621919.0261780011</v>
       </c>
       <c r="K6" t="n">
-        <v>607757.6919188042</v>
+        <v>608070.3332477256</v>
       </c>
       <c r="L6" t="n">
-        <v>642796.0759556498</v>
+        <v>643108.717284571</v>
       </c>
       <c r="M6" t="n">
-        <v>513524.9490260263</v>
+        <v>513837.5903549476</v>
       </c>
       <c r="N6" t="n">
-        <v>670671.3295776246</v>
+        <v>670983.9709065455</v>
       </c>
       <c r="O6" t="n">
-        <v>670671.3295776244</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="P6" t="n">
-        <v>670671.3295776246</v>
+        <v>670983.9709065456</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950629</v>
+        <v>758.899629295062</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594725</v>
+        <v>431.9757039594714</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821587</v>
+        <v>210.4296883821575</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262119</v>
+        <v>94.8110352426221</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -26974,10 +26974,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931529</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666907</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931529</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666907</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931529</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666907</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>157.9728428959502</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988715</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>92.24827735475708</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>125.1005206659415</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,19 +27514,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310563</v>
+        <v>140.0609456017939</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715784</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098447</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849722</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>212.5048012310005</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>228.3563318800099</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246128</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937505</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074777</v>
+        <v>44.33060630074789</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27751,7 +27751,7 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>163.2269762521457</v>
+        <v>211.2645915740522</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>130.1950330004596</v>
       </c>
       <c r="I7" t="n">
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304031</v>
+        <v>30.24193919304044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589147</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>169.5458079174318</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>394.7420555922634</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.7651403059305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>11.39188093250797</v>
       </c>
       <c r="S9" t="n">
-        <v>117.2980339485929</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.720665128099</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>66.50969266293805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085678</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429371</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428057</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286708</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520276</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511785</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968109</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610706</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191499</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860971</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634662</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098734</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898995</v>
+        <v>69.52130774898987</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920256</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868542</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63235014603089</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403518</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062495</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475939</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316635</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721896</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658093</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468673</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.377624437446</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872495</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547501</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632162</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947726</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378892</v>
+        <v>6.579516597378885</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757165</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236999</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377987</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734539</v>
+        <v>41.15475366734534</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463558</v>
+        <v>96.75348224635567</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260804</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162534</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399142</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528492</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275351</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515002</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235545</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054721</v>
+        <v>61.53307486054714</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391205</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830811</v>
+        <v>5.847259438830804</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656364</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31861,7 +31861,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198451</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407047</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811913</v>
+        <v>245.6810352811907</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695382</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644797</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974631</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308276</v>
+        <v>207.4834477308271</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890167</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092722</v>
+        <v>27.38366498092702</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573045</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923154</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437909</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635341</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930016</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729193</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872861</v>
+        <v>68.38629016872838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554498</v>
+        <v>29.98243465554478</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501515</v>
+        <v>68.57507023501492</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230915</v>
+        <v>75.5939915923089</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761602</v>
+        <v>81.73343028761576</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569231</v>
+        <v>54.97578017569208</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235259</v>
+        <v>27.78676100235239</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
